--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E11B7D-F329-4E21-8854-3DA71EF716B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11777B4F-BF98-9348-9082-8AE303D22983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1080" windowWidth="23260" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Projektplaner!$B$1:$DO$24</definedName>
+    <definedName name="Plan">ZeitraumInPlan*(Projektplaner!$E1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplaner!$3:$4</definedName>
-    <definedName name="Plan">ZeitraumInPlan*(Projektplaner!$E1&gt;0)</definedName>
     <definedName name="ProzentAbgeschlossen">ProzentAbgeschlossenHinter*ZeitraumInPlan</definedName>
     <definedName name="ProzentAbgeschlossenHinter">(Projektplaner!A$4=MEDIAN(Projektplaner!A$4,Projektplaner!$G1,Projektplaner!$G1+Projektplaner!$H1)*(Projektplaner!$G1&gt;0))*((Projektplaner!A$4&lt;(INT(Projektplaner!$G1+Projektplaner!$H1*Projektplaner!$I1)))+(Projektplaner!A$4=Projektplaner!$G1))*(Projektplaner!$I1&gt;0)</definedName>
     <definedName name="Tatsächlich">(ZeitraumInTatsächlich*(Projektplaner!$G1&gt;0))*ZeitraumInPlan</definedName>
@@ -763,20 +763,20 @@
     <cellStyle name="% abgeschlossen" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Aktivität" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Bezeichnung" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Erklärender Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Legende &quot;Tatsächlich&quot;" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Legende zu &quot;% abgeschlossen (hinter dem Plan)&quot;" xfId="18" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Legende zu &quot;tatsächlich (hinter dem Plan)&quot;" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Planlegende" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Projektüberschriften" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Prozent abgeschlossen" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Steuerelement zum Hervorheben von Zeiträumen" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Überschrift" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschriften für Zeiträume" xfId="3" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Zeitraumwert" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
@@ -947,15 +947,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>279400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1228,22 +1228,22 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="75" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="15.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="4" customWidth="1"/>
-    <col min="10" max="29" width="4.5546875" style="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="15.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="4" customWidth="1"/>
+    <col min="10" max="29" width="4.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="AQ2" s="31"/>
       <c r="AR2" s="31"/>
     </row>
-    <row r="3" spans="2:120" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:120" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="DP4" s="3"/>
     </row>
-    <row r="5" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>22</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>48</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>49</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>50</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>52</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>53</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>54</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>55</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>56</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
         <v>57</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
         <v>58</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>59</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
         <v>60</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>61</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
         <v>62</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>63</v>
       </c>
@@ -2222,15 +2222,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>20</v>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2353,15 +2353,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>609600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>279400</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>139700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11777B4F-BF98-9348-9082-8AE303D22983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F44E5C0-32BA-594D-BA06-0EDA98697E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1080" windowWidth="23260" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,8 +1228,8 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2183,7 +2183,7 @@
         <v>87</v>
       </c>
       <c r="F22" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -2207,10 +2207,10 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>26</v>
@@ -2234,10 +2234,10 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F24" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F44E5C0-32BA-594D-BA06-0EDA98697E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5EEE2A-D88D-4F5E-8CF0-535FC8896A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1080" windowWidth="23260" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Projektplaner!$B$1:$DO$24</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplaner!$3:$4</definedName>
     <definedName name="Plan">ZeitraumInPlan*(Projektplaner!$E1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplaner!$3:$4</definedName>
     <definedName name="ProzentAbgeschlossen">ProzentAbgeschlossenHinter*ZeitraumInPlan</definedName>
     <definedName name="ProzentAbgeschlossenHinter">(Projektplaner!A$4=MEDIAN(Projektplaner!A$4,Projektplaner!$G1,Projektplaner!$G1+Projektplaner!$H1)*(Projektplaner!$G1&gt;0))*((Projektplaner!A$4&lt;(INT(Projektplaner!$G1+Projektplaner!$H1*Projektplaner!$I1)))+(Projektplaner!A$4=Projektplaner!$G1))*(Projektplaner!$I1&gt;0)</definedName>
     <definedName name="Tatsächlich">(ZeitraumInTatsächlich*(Projektplaner!$G1&gt;0))*ZeitraumInPlan</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -317,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -763,20 +763,20 @@
     <cellStyle name="% abgeschlossen" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Aktivität" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Bezeichnung" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Legende &quot;Tatsächlich&quot;" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Legende zu &quot;% abgeschlossen (hinter dem Plan)&quot;" xfId="18" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Legende zu &quot;tatsächlich (hinter dem Plan)&quot;" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Planlegende" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Projektüberschriften" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Prozent abgeschlossen" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Steuerelement zum Hervorheben von Zeiträumen" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Überschriften für Zeiträume" xfId="3" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Zeitraumwert" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
@@ -947,15 +947,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>279400</xdr:colOff>
+          <xdr:colOff>281940</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1228,22 +1228,22 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="15.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" style="4" customWidth="1"/>
-    <col min="10" max="29" width="4.5" style="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="4" customWidth="1"/>
+    <col min="10" max="29" width="4.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="AQ2" s="31"/>
       <c r="AR2" s="31"/>
     </row>
-    <row r="3" spans="2:120" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:120" s="11" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:120" ht="15.75" customHeight="1">
       <c r="B4" s="33"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="DP4" s="3"/>
     </row>
-    <row r="5" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:120" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
         <v>22</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:120" ht="30" customHeight="1">
       <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:120" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:120" ht="30" customHeight="1">
       <c r="B8" s="27" t="s">
         <v>48</v>
       </c>
@@ -1810,14 +1810,14 @@
       <c r="G8" s="7">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
+      <c r="H8" s="7">
+        <v>3</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:120" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
         <v>49</v>
       </c>
@@ -1834,17 +1834,17 @@
       <c r="F9" s="7">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>26</v>
+      <c r="G9" s="7">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
       </c>
       <c r="I9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:120" ht="30" customHeight="1">
       <c r="B10" s="27" t="s">
         <v>50</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:120" ht="30" customHeight="1">
       <c r="B11" s="27" t="s">
         <v>51</v>
       </c>
@@ -1882,8 +1882,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
@@ -1898,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:120" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
         <v>52</v>
       </c>
@@ -1910,7 +1909,7 @@
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
@@ -1925,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:120" ht="30" customHeight="1">
       <c r="B13" s="27" t="s">
         <v>53</v>
       </c>
@@ -1936,8 +1935,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
@@ -1952,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:120" ht="30" customHeight="1">
       <c r="B14" s="27" t="s">
         <v>54</v>
       </c>
@@ -1964,7 +1962,7 @@
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7">
         <v>6</v>
@@ -1979,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:120" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
         <v>55</v>
       </c>
@@ -1991,7 +1989,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7">
         <v>5</v>
@@ -2006,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:120" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
         <v>56</v>
       </c>
@@ -2018,7 +2016,7 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7">
         <v>8</v>
@@ -2033,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="30" customHeight="1">
       <c r="B17" s="27" t="s">
         <v>57</v>
       </c>
@@ -2045,7 +2043,7 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7">
         <v>8</v>
@@ -2060,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
         <v>58</v>
       </c>
@@ -2072,7 +2070,7 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F18" s="7">
         <v>8</v>
@@ -2087,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
         <v>59</v>
       </c>
@@ -2099,7 +2097,7 @@
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7">
         <v>4</v>
@@ -2114,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="30" customHeight="1">
       <c r="B20" s="27" t="s">
         <v>60</v>
       </c>
@@ -2126,7 +2124,7 @@
       </c>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F20" s="7">
         <v>4</v>
@@ -2141,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
         <v>61</v>
       </c>
@@ -2153,7 +2151,7 @@
       </c>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F21" s="7">
         <v>6</v>
@@ -2168,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
         <v>62</v>
       </c>
@@ -2180,7 +2178,7 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7">
         <v>5</v>
@@ -2195,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="30" customHeight="1">
       <c r="B23" s="27" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2205,7 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F23" s="7">
         <v>3</v>
@@ -2222,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
         <v>64</v>
       </c>
@@ -2234,7 +2232,7 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F24" s="7">
         <v>3</v>
@@ -2249,16 +2247,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="30" customHeight="1">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="30" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="30" customHeight="1">
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2353,15 +2351,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>609600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>279400</xdr:colOff>
+                    <xdr:colOff>281940</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5EEE2A-D88D-4F5E-8CF0-535FC8896A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7CAB3-2FD7-449C-AA77-8B2175FFCDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -1228,8 +1228,8 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
@@ -1861,14 +1861,14 @@
       <c r="F10" s="7">
         <v>5</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
+      <c r="G10" s="7">
+        <v>24</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:120" ht="30" customHeight="1">
@@ -1887,14 +1887,14 @@
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
+      <c r="G11" s="7">
+        <v>24</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="2:120" ht="30" customHeight="1">

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7CAB3-2FD7-449C-AA77-8B2175FFCDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C052D8-0F87-4D33-A2CC-D6353BB87BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -1228,8 +1228,8 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
@@ -1864,11 +1864,11 @@
       <c r="G10" s="7">
         <v>24</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>26</v>
+      <c r="H10" s="7">
+        <v>4</v>
       </c>
       <c r="I10" s="8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:120" ht="30" customHeight="1">
@@ -1890,11 +1890,11 @@
       <c r="G11" s="7">
         <v>24</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>26</v>
+      <c r="H11" s="7">
+        <v>3</v>
       </c>
       <c r="I11" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:120" ht="30" customHeight="1">
@@ -1905,7 +1905,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -1914,8 +1914,8 @@
       <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
+      <c r="G12" s="7">
+        <v>27</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>26</v>
@@ -1932,10 +1932,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
@@ -1958,11 +1958,11 @@
         <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7">
         <v>6</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7">
         <v>5</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7">
         <v>8</v>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7">
         <v>8</v>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F18" s="7">
         <v>8</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7">
         <v>4</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7">
         <v>4</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7">
         <v>6</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7">
         <v>5</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7">
         <v>3</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F24" s="7">
         <v>3</v>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C052D8-0F87-4D33-A2CC-D6353BB87BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8A7CB2-99A6-4835-8D20-7B268CD87625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -1229,7 +1229,7 @@
   <dimension ref="B1:DP27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
@@ -1917,11 +1917,11 @@
       <c r="G12" s="7">
         <v>27</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>26</v>
+      <c r="H12" s="7">
+        <v>3</v>
       </c>
       <c r="I12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:120" ht="30" customHeight="1">
@@ -1932,7 +1932,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7">
         <v>30</v>
@@ -1940,14 +1940,14 @@
       <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>26</v>
+      <c r="G13" s="7">
+        <v>30</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
       </c>
       <c r="I13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:120" ht="30" customHeight="1">

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8A7CB2-99A6-4835-8D20-7B268CD87625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D712A-2EAA-4222-B21B-452D26D8B975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>4.3</t>
+  </si>
+  <si>
+    <t>Summe</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1232,7 @@
   <dimension ref="B1:DP27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
@@ -2250,10 +2253,17 @@
     <row r="25" spans="2:9" ht="30" customHeight="1">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
+      <c r="H25" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SUM(H6:H25)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
@@ -2276,7 +2286,7 @@
     <mergeCell ref="AC2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="B25:DP25">
+  <conditionalFormatting sqref="B25:DP25 H26">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D712A-2EAA-4222-B21B-452D26D8B975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2623AF-2FFF-4520-9ADE-47EAF90FA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -1231,8 +1231,8 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
@@ -1961,14 +1961,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -1988,14 +1987,14 @@
         <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>26</v>
@@ -2015,23 +2014,22 @@
         <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7">
         <v>8</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>26</v>
+      <c r="G16" s="7">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1">
@@ -2042,23 +2040,22 @@
         <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7">
-        <v>8</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="G17" s="7">
+        <v>41</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1">
@@ -2069,14 +2066,13 @@
         <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -2099,11 +2095,11 @@
         <v>20</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f>E18+F18</f>
+        <v>63</v>
       </c>
       <c r="F19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -2123,17 +2119,16 @@
         <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7">
-        <v>4</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="G20" s="7">
+        <v>41</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>26</v>
@@ -2150,11 +2145,11 @@
         <v>40</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7">
         <v>6</v>
@@ -2181,10 +2176,10 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -2208,10 +2203,10 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>26</v>
@@ -2235,10 +2230,10 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>
@@ -2263,7 +2258,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2623AF-2FFF-4520-9ADE-47EAF90FA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE018951-7598-40E8-AAF3-2A20436F178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -160,9 +160,6 @@
     <t>AP-Nr</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Mitarbeiter</t>
   </si>
   <si>
@@ -313,7 +310,7 @@
     <t>4.3</t>
   </si>
   <si>
-    <t>Summe</t>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -1232,14 +1229,14 @@
   <dimension ref="B1:DP27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.44140625" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
     <col min="5" max="8" width="15.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.109375" style="4" customWidth="1"/>
@@ -1248,7 +1245,7 @@
   <sheetData>
     <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="29">
         <v>45056</v>
@@ -1269,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -1329,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>0</v>
@@ -1715,13 +1712,13 @@
     </row>
     <row r="5" spans="2:120" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1741,13 +1738,13 @@
     </row>
     <row r="6" spans="2:120" ht="30" customHeight="1">
       <c r="B6" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7">
         <f>E5+F5</f>
@@ -1768,13 +1765,13 @@
     </row>
     <row r="7" spans="2:120" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" ref="E7:E24" si="0">E6+F6</f>
@@ -1795,13 +1792,13 @@
     </row>
     <row r="8" spans="2:120" ht="30" customHeight="1">
       <c r="B8" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
@@ -1822,13 +1819,13 @@
     </row>
     <row r="9" spans="2:120" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
@@ -1849,13 +1846,13 @@
     </row>
     <row r="10" spans="2:120" ht="30" customHeight="1">
       <c r="B10" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -1876,13 +1873,13 @@
     </row>
     <row r="11" spans="2:120" ht="30" customHeight="1">
       <c r="B11" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7">
         <v>24</v>
@@ -1902,13 +1899,13 @@
     </row>
     <row r="12" spans="2:120" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -1929,13 +1926,13 @@
     </row>
     <row r="13" spans="2:120" ht="30" customHeight="1">
       <c r="B13" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7">
         <v>30</v>
@@ -1955,13 +1952,13 @@
     </row>
     <row r="14" spans="2:120" ht="30" customHeight="1">
       <c r="B14" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7">
         <v>71</v>
@@ -1970,10 +1967,10 @@
         <v>8</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -1981,13 +1978,13 @@
     </row>
     <row r="15" spans="2:120" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
@@ -1997,10 +1994,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
@@ -2008,13 +2005,13 @@
     </row>
     <row r="16" spans="2:120" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="7">
         <v>33</v>
@@ -2034,16 +2031,16 @@
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1">
       <c r="B17" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7">
         <v>14</v>
@@ -2052,21 +2049,21 @@
         <v>41</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="8">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="7">
         <v>47</v>
@@ -2075,10 +2072,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
@@ -2086,13 +2083,13 @@
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="7">
         <f>E18+F18</f>
@@ -2102,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
@@ -2113,13 +2110,13 @@
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1">
       <c r="B20" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="7">
         <v>41</v>
@@ -2131,21 +2128,21 @@
         <v>41</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
@@ -2155,10 +2152,10 @@
         <v>6</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
@@ -2166,13 +2163,13 @@
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
@@ -2182,10 +2179,10 @@
         <v>6</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="8">
         <v>0</v>
@@ -2193,13 +2190,13 @@
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
       <c r="B23" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
@@ -2209,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="8">
         <v>0</v>
@@ -2220,13 +2217,13 @@
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
@@ -2236,10 +2233,10 @@
         <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" s="8">
         <v>0</v>
@@ -2248,22 +2245,15 @@
     <row r="25" spans="2:9" ht="30" customHeight="1">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1">
       <c r="C26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="1">
-        <f>SUM(H6:H25)</f>
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2271,7 @@
     <mergeCell ref="AC2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="B25:DP25 H26">
+  <conditionalFormatting sqref="B25:DP25">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -2317,7 +2307,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="16">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Projektplaner verwendet Zeiträume für Intervalle. „Start=1“ ist Zeitraum 1 und „Dauer=5“ bedeutet, dass das Projekt von Start bis Ende 5 „Zeiträume“ dauert. Geben Sie ab Zelle B5 Daten ein, um das Diagramm zu aktualisieren." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Geben Sie einen Wert von 1 bis 110 ein, oder wählen Sie in der Liste einen Zeitraum aus – drücken Sie ABBRECHEN, ALT+NACH-UNTEN und dann die EINGABETASTE, um einen Wert auszuwählen" prompt="Geben Sie einen Zeitraum im Bereich 1 bis 110 ein oder wählen Sie einen Zeitraum aus der Liste aus. Drücken Sie ALT+NACH-UNTEN um in der Liste zu navigieren, und drücken Sie dann EINGABE, um einen Wert auszuwählen." sqref="J2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
@@ -2340,7 +2330,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="19" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="20" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE018951-7598-40E8-AAF3-2A20436F178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0F303-B79C-4796-B554-E823DA7F64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="876" windowWidth="17280" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -1228,8 +1228,8 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="49" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0F303-B79C-4796-B554-E823DA7F64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D00295-366B-41BD-BBFF-4C423457E248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="876" windowWidth="17280" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="8904" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -1228,8 +1228,8 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="49" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
@@ -2071,14 +2071,14 @@
       <c r="F18" s="7">
         <v>16</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>25</v>
+      <c r="G18" s="7">
+        <v>47</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1">
@@ -2116,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7">
         <v>41</v>
@@ -2131,7 +2131,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="8">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1">
@@ -2142,11 +2142,10 @@
         <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7">
         <v>6</v>
@@ -2173,7 +2172,7 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F22" s="7">
         <v>6</v>
@@ -2200,7 +2199,7 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F23" s="7">
         <v>6</v>
@@ -2227,7 +2226,7 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7">
         <v>6</v>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D00295-366B-41BD-BBFF-4C423457E248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024E1B9-04C5-1346-BB50-A976A3835FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="8904" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Projektplaner!$B$1:$DO$24</definedName>
+    <definedName name="Plan">ZeitraumInPlan*(Projektplaner!$E1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplaner!$3:$4</definedName>
-    <definedName name="Plan">ZeitraumInPlan*(Projektplaner!$E1&gt;0)</definedName>
     <definedName name="ProzentAbgeschlossen">ProzentAbgeschlossenHinter*ZeitraumInPlan</definedName>
     <definedName name="ProzentAbgeschlossenHinter">(Projektplaner!A$4=MEDIAN(Projektplaner!A$4,Projektplaner!$G1,Projektplaner!$G1+Projektplaner!$H1)*(Projektplaner!$G1&gt;0))*((Projektplaner!A$4&lt;(INT(Projektplaner!$G1+Projektplaner!$H1*Projektplaner!$I1)))+(Projektplaner!A$4=Projektplaner!$G1))*(Projektplaner!$I1&gt;0)</definedName>
     <definedName name="Tatsächlich">(ZeitraumInTatsächlich*(Projektplaner!$G1&gt;0))*ZeitraumInPlan</definedName>
@@ -199,9 +199,6 @@
     <t>Erstellung von Wireframes und Mockups</t>
   </si>
   <si>
-    <t>Erarbeitung der User Interface Desgins</t>
-  </si>
-  <si>
     <t>Erstellung des Datenbank-Desgins</t>
   </si>
   <si>
@@ -311,13 +308,16 @@
   </si>
   <si>
     <t>2.0</t>
+  </si>
+  <si>
+    <t>Erarbeitung der User Interface Designs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -763,20 +763,20 @@
     <cellStyle name="% abgeschlossen" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Aktivität" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Bezeichnung" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Erklärender Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Legende &quot;Tatsächlich&quot;" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Legende zu &quot;% abgeschlossen (hinter dem Plan)&quot;" xfId="18" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Legende zu &quot;tatsächlich (hinter dem Plan)&quot;" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Planlegende" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Projektüberschriften" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Prozent abgeschlossen" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Steuerelement zum Hervorheben von Zeiträumen" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Überschrift" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschriften für Zeiträume" xfId="3" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Zeitraumwert" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
@@ -947,15 +947,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>281940</xdr:colOff>
+          <xdr:colOff>279400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1228,22 +1228,22 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="4" customWidth="1"/>
-    <col min="10" max="29" width="4.44140625" style="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="15.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="4" customWidth="1"/>
+    <col min="10" max="29" width="4.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -1321,7 +1321,7 @@
       <c r="AQ2" s="31"/>
       <c r="AR2" s="31"/>
     </row>
-    <row r="3" spans="2:120" s="11" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1">
+    <row r="3" spans="2:120" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" spans="2:120" ht="15.75" customHeight="1">
+    <row r="4" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="DP4" s="3"/>
     </row>
-    <row r="5" spans="2:120" ht="30" customHeight="1">
+    <row r="5" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:120" ht="30" customHeight="1">
+    <row r="6" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7">
         <f>E5+F5</f>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:120" ht="30" customHeight="1">
+    <row r="7" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
@@ -1790,9 +1790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:120" ht="30" customHeight="1">
+    <row r="8" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>26</v>
@@ -1817,12 +1817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:120" ht="30" customHeight="1">
+    <row r="9" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -1844,15 +1844,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:120" ht="30" customHeight="1">
+    <row r="10" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -1871,15 +1871,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:120" ht="30" customHeight="1">
+    <row r="11" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7">
         <v>24</v>
@@ -1897,15 +1897,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:120" ht="30" customHeight="1">
+    <row r="12" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -1924,15 +1924,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:120" ht="30" customHeight="1">
+    <row r="13" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7">
         <v>30</v>
@@ -1950,15 +1950,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:120" ht="30" customHeight="1">
+    <row r="14" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7">
         <v>71</v>
@@ -1976,15 +1976,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:120" ht="30" customHeight="1">
+    <row r="15" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
@@ -2003,15 +2003,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:120" ht="30" customHeight="1">
+    <row r="16" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7">
         <v>33</v>
@@ -2029,12 +2029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>19</v>
@@ -2055,12 +2055,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1">
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
@@ -2078,15 +2078,15 @@
         <v>25</v>
       </c>
       <c r="I18" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
@@ -2108,15 +2108,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1">
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7">
         <v>41</v>
@@ -2134,12 +2134,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1">
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>19</v>
@@ -2160,12 +2160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1">
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>19</v>
@@ -2187,15 +2187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1">
+    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
@@ -2214,15 +2214,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1">
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
@@ -2241,18 +2241,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1">
+    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1">
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2345,15 +2345,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>609600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>281940</xdr:colOff>
+                    <xdr:colOff>279400</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
+                    <xdr:rowOff>139700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024E1B9-04C5-1346-BB50-A976A3835FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7E937B-BF50-49AF-809D-C8F776A7AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Projektplaner!$B$1:$DO$24</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplaner!$3:$4</definedName>
     <definedName name="Plan">ZeitraumInPlan*(Projektplaner!$E1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplaner!$3:$4</definedName>
     <definedName name="ProzentAbgeschlossen">ProzentAbgeschlossenHinter*ZeitraumInPlan</definedName>
     <definedName name="ProzentAbgeschlossenHinter">(Projektplaner!A$4=MEDIAN(Projektplaner!A$4,Projektplaner!$G1,Projektplaner!$G1+Projektplaner!$H1)*(Projektplaner!$G1&gt;0))*((Projektplaner!A$4&lt;(INT(Projektplaner!$G1+Projektplaner!$H1*Projektplaner!$I1)))+(Projektplaner!A$4=Projektplaner!$G1))*(Projektplaner!$I1&gt;0)</definedName>
     <definedName name="Tatsächlich">(ZeitraumInTatsächlich*(Projektplaner!$G1&gt;0))*ZeitraumInPlan</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>START DES PLANS</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Risikomanagement</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Erstellung von Wireframes und Mockups</t>
   </si>
   <si>
@@ -317,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -763,20 +760,20 @@
     <cellStyle name="% abgeschlossen" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Aktivität" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Bezeichnung" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Legende &quot;Tatsächlich&quot;" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Legende zu &quot;% abgeschlossen (hinter dem Plan)&quot;" xfId="18" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Legende zu &quot;tatsächlich (hinter dem Plan)&quot;" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Planlegende" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Projektüberschriften" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Prozent abgeschlossen" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Steuerelement zum Hervorheben von Zeiträumen" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Überschriften für Zeiträume" xfId="3" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Zeitraumwert" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
@@ -947,15 +944,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>279400</xdr:colOff>
+          <xdr:colOff>281940</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1228,22 +1225,22 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="15.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" style="4" customWidth="1"/>
-    <col min="10" max="29" width="4.5" style="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="4" customWidth="1"/>
+    <col min="10" max="29" width="4.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:120" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1252,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:120" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -1321,7 +1318,7 @@
       <c r="AQ2" s="31"/>
       <c r="AR2" s="31"/>
     </row>
-    <row r="3" spans="2:120" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:120" s="11" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1366,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:120" ht="15.75" customHeight="1">
       <c r="B4" s="33"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -1710,7 +1707,7 @@
       </c>
       <c r="DP4" s="3"/>
     </row>
-    <row r="5" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:120" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:120" ht="30" customHeight="1">
       <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7">
         <f>E5+F5</f>
@@ -1763,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:120" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
@@ -1790,12 +1787,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:120" ht="30" customHeight="1">
       <c r="B8" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -1817,12 +1814,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:120" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -1844,15 +1841,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:120" ht="30" customHeight="1">
       <c r="B10" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -1871,15 +1868,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:120" ht="30" customHeight="1">
       <c r="B11" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7">
         <v>24</v>
@@ -1897,15 +1894,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:120" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -1924,15 +1921,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:120" ht="30" customHeight="1">
       <c r="B13" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7">
         <v>30</v>
@@ -1950,15 +1947,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:120" ht="30" customHeight="1">
       <c r="B14" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7">
         <v>71</v>
@@ -1966,25 +1963,25 @@
       <c r="F14" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>25</v>
+      <c r="G14" s="7">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:120" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
@@ -1993,25 +1990,25 @@
       <c r="F15" s="7">
         <v>8</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>25</v>
+      <c r="G15" s="7">
+        <v>79</v>
+      </c>
+      <c r="H15" s="7">
+        <v>6</v>
       </c>
       <c r="I15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:120" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7">
         <v>33</v>
@@ -2029,12 +2026,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="30" customHeight="1">
       <c r="B17" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>19</v>
@@ -2048,19 +2045,19 @@
       <c r="G17" s="7">
         <v>41</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>25</v>
+      <c r="H17" s="7">
+        <v>10</v>
       </c>
       <c r="I17" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
@@ -2074,19 +2071,19 @@
       <c r="G18" s="7">
         <v>47</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>25</v>
+      <c r="H18" s="7">
+        <v>16</v>
       </c>
       <c r="I18" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
@@ -2098,25 +2095,25 @@
       <c r="F19" s="7">
         <v>6</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>25</v>
+      <c r="G19" s="7">
+        <v>63</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
       </c>
       <c r="I19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="30" customHeight="1">
       <c r="B20" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7">
         <v>41</v>
@@ -2127,19 +2124,19 @@
       <c r="G20" s="7">
         <v>41</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>25</v>
+      <c r="H20" s="7">
+        <v>6</v>
       </c>
       <c r="I20" s="8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>19</v>
@@ -2150,22 +2147,22 @@
       <c r="F21" s="7">
         <v>6</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>25</v>
+      <c r="G21" s="7">
+        <v>41</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6</v>
       </c>
       <c r="I21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>19</v>
@@ -2177,25 +2174,25 @@
       <c r="F22" s="7">
         <v>6</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>25</v>
+      <c r="G22" s="7">
+        <v>47</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="30" customHeight="1">
       <c r="B23" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
@@ -2204,25 +2201,25 @@
       <c r="F23" s="7">
         <v>6</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>25</v>
+      <c r="G23" s="7">
+        <v>53</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
       </c>
       <c r="I23" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
@@ -2231,28 +2228,28 @@
       <c r="F24" s="7">
         <v>6</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>25</v>
+      <c r="G24" s="7">
+        <v>59</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
       </c>
       <c r="I24" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="30" customHeight="1">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="30" customHeight="1">
       <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" customHeight="1">
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2345,15 +2342,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>609600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>279400</xdr:colOff>
+                    <xdr:colOff>281940</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planung/4APC_GanttChart_gr01.xlsx
+++ b/Planung/4APC_GanttChart_gr01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7E937B-BF50-49AF-809D-C8F776A7AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E402764-4011-40F5-9771-C508D74429D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2064" yWindow="1644" windowWidth="17280" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -208,15 +208,6 @@
     <t>Veranstaltungsdetails (HTML/CSS)</t>
   </si>
   <si>
-    <t>Filter- &amp; Suchfunktion (Javascript)</t>
-  </si>
-  <si>
-    <t>Veranstaltungsbuchung (Javascript)</t>
-  </si>
-  <si>
-    <t> Responsives Design (Javascript)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Benutzerregistrierung &amp; Anmeldung (PHP)</t>
   </si>
   <si>
@@ -308,6 +299,15 @@
   </si>
   <si>
     <t>Erarbeitung der User Interface Designs</t>
+  </si>
+  <si>
+    <t>Veranstaltungsbuchung</t>
+  </si>
+  <si>
+    <t> Responsives Design</t>
+  </si>
+  <si>
+    <t>Filter- &amp; Suchfunktion</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1225,8 @@
   </sheetPr>
   <dimension ref="B1:DP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="59" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="30" customHeight="1"/>
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -1741,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7">
         <f>E5+F5</f>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="8" spans="2:120" ht="30" customHeight="1">
       <c r="B8" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>25</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="9" spans="2:120" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="10" spans="2:120" ht="30" customHeight="1">
       <c r="B10" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="11" spans="2:120" ht="30" customHeight="1">
       <c r="B11" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7">
         <v>24</v>
@@ -1896,13 +1896,13 @@
     </row>
     <row r="12" spans="2:120" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="13" spans="2:120" ht="30" customHeight="1">
       <c r="B13" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7">
         <v>30</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="14" spans="2:120" ht="30" customHeight="1">
       <c r="B14" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="7">
         <v>71</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="15" spans="2:120" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="16" spans="2:120" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7">
         <v>33</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1">
       <c r="B17" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>19</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1">
       <c r="B20" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="7">
         <v>41</v>
@@ -2128,15 +2128,15 @@
         <v>6</v>
       </c>
       <c r="I20" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>19</v>
@@ -2154,15 +2154,15 @@
         <v>6</v>
       </c>
       <c r="I21" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>19</v>
@@ -2178,18 +2178,18 @@
         <v>47</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I22" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
       <c r="B23" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>19</v>
@@ -2205,18 +2205,18 @@
         <v>53</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
@@ -2232,10 +2232,10 @@
         <v>59</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1">
@@ -2244,12 +2244,12 @@
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1">
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
